--- a/biology/Histoire de la zoologie et de la botanique/Shigeru_Shirai/Shigeru_Shirai.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Shigeru_Shirai/Shigeru_Shirai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shigeru Shirai (白井 滋, Shirai Shigeru?)[1] est un ichtyologiste japonais spécialiste des Elasmobranchii, en particulier les requins. Diplômé du département de zoologie de l'Université de Tokyo avec un PhD en sciences halieutiques, il est rédacteur du journal japonais Ichthyological Research[2] et auteur du livre Squalean Phylogeny[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shigeru Shirai (白井 滋, Shirai Shigeru?) est un ichtyologiste japonais spécialiste des Elasmobranchii, en particulier les requins. Diplômé du département de zoologie de l'Université de Tokyo avec un PhD en sciences halieutiques, il est rédacteur du journal japonais Ichthyological Research et auteur du livre Squalean Phylogeny.
 </t>
         </is>
       </c>
